--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/11_Aydın_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/11_Aydın_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDCE4A4-482B-4E2C-B4B9-05683375C326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE518BA-4775-491E-8EAD-59708D5690F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{931F02EE-B136-47DC-ADB8-9E68DBBDCB2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{D4FFCB52-4853-4B9E-B608-83B95A39083C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="103" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D452F9FC-F2BC-4AD0-9398-8B67512C9EF8}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3333FE54-9F7E-4D6D-824B-AA5771AF86C8}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{72F49F7A-DF0C-4C29-AA53-7C32EAFC0A28}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{95403E4F-FB63-4654-8E84-B324A8CFADA5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8ACFBED3-6931-4BCB-88C8-14A8BDE87F22}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A1FE54E9-EEC9-48B7-AF92-A0FD2DAF24A6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A353FEB7-A96D-4E10-A54E-1B8CDA9FF66A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{ACDD8BAA-4039-4490-8BA4-78A89972B711}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2F3A691C-D07B-4429-B4F3-1DC30785EFBD}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D92A2A28-33ED-42A3-ACBB-04FBBFAE1F1A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3F0D3166-5420-45E8-BF06-94EDB422999F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4797FA3E-616C-4B8C-9769-E976D039B349}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{D9D578CA-B5ED-454E-8533-2C7DC1E7FEC5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{18BC1BDC-7837-4837-AD4B-60E66188702A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B20F7E-B613-4163-81F3-DC5F98353680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFA1EF-9B00-4497-B4B2-187C82611F6F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2574,18 +2574,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70E105A4-33FF-4062-B537-01160CCA5D1B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28C64B0C-B632-464F-8034-746E6016293E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F46E172B-62BF-4316-8AC4-408745907DE1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A922B665-71B5-44C9-9DAA-6DB56B82986E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89CBD4E7-BDFF-4130-8553-9E08A45EFF87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BE136F3-64F3-458C-A0D3-4833EC01867C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F7A4618-3420-4D62-83A9-02C444CA884B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B61CA498-E081-46D6-85E1-8C57FF1E9329}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49142BF8-8052-4A1F-88F0-AFB14984C58D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEB96B0B-292A-4D19-80F7-5098797AF5DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D499B25D-98D0-4024-8C00-4EC98C8CF8A7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74AC4478-F398-44C8-AD28-F13A9B8F61F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{922DEF31-204C-471E-99B3-4B9C63DD3395}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E270871-56FC-4DD2-9D04-E254B6F40682}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E063E892-45D7-4922-9D42-B2B4FF34AEEA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1B0F705C-49B8-4EDA-BC48-4B73119B9D32}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0AB7709-42A4-4AF8-9F07-1835392EB8EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95244B7D-B954-471F-A9B6-23412DC358FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21F5B821-6E9B-48EF-9640-0743E46737BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F6C56FF-4AF5-4692-B448-B585F552B767}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C07F298D-3665-4F7F-811D-6596B1BAAC12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{736331CD-C606-4EB3-8759-E6292899D5EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6F00389-4E2B-4F3E-8CF9-C64D8A6E8C97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FEA969E9-583B-44F2-8CCF-2CB64984AF9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2598,7 +2598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6B7B1A-48D0-4C99-9C09-6F67CA228577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5A17CE-23E7-49CF-AE5A-20E98211EAD3}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3856,18 +3856,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD35FC33-D4E1-4B16-92AF-4CF6471E8A63}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C921B2E4-2BB8-4C4C-A53F-D008A5DD0804}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B4C9668-95EF-43FB-904F-1DD7FEE6C480}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7EC3D7C6-DB56-4D87-AFFF-61FDFE08E178}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36459B8F-EC39-4E34-9160-B158E0601E31}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{941C523F-7DCD-4CDE-A624-6B6598E43107}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BC0B2E1-0C61-4783-A86B-684C3C6D6354}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB084CF1-4A13-4B13-97BC-9C9494762BA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E12E1227-70F3-4DE7-B907-84282EB16F47}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6774CEB-D22C-4E47-8672-9B28C9100D9F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CC939ED-5308-4E84-B785-3CAE71AD860F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5079FA18-831E-48A5-B7D0-39331EFCBF46}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB494320-AAE9-4679-B5FD-61C52DD569C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85BDBDD6-72B4-4C2C-AD4F-F4403F6B2A6B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D26E21E4-C641-47F9-A0E4-0B98F33337C2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{813A73BA-C99C-4044-8226-9390429D01B3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B6E9D50-F611-49F8-9E67-57B9330378F5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8649DC4-5BBB-4A81-B322-A62D5009838C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BCA2DE4-11F2-4AFE-AEBA-E18C33A69C5D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74F65FB4-4229-463D-9DED-2976B3CA3257}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0E80690-1FA1-4174-860E-4409C11A28E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{17DC0768-58B5-4A67-927C-AF3443E08BDD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BE2E26E-99CD-4DD9-B278-51E1B96AE60B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A7B0E30-F9A7-4FD4-822C-C4AFC14470CE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3880,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189367AA-F621-4D4D-B713-F9A1DF91BBC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C579D1EF-53BE-4465-AA9A-7157F29A2F67}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5126,18 +5126,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F83678B6-4B88-4659-A578-BA6FC528D3B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6CD313C-1CD2-4340-BC48-23D328F9D413}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B53535DF-EF8E-4145-AAC6-0099F298B55C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF9A1ED2-0749-4691-B7D0-F590E268BBDD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F3E958F-3FAF-4676-BFC8-0814E2038F37}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1E60D40-1301-462D-A1EF-28F5AAACE346}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A055E816-DF5B-4BCF-8D45-4331CB2AB9E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{491C1FCC-F9ED-4C03-9234-C698CBA4842C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D5111B1-6384-43CD-BE39-F257118841F8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9EAABABC-ED0B-46D7-A162-F42B07D919FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA9BE80C-513D-4849-81A3-32C7FB5BE10E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCDFFDA3-B926-4A9F-89E8-A23C2903513B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48E64785-C978-4775-9D19-C8591EFC1457}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59DE38B2-57A7-47FC-A7F5-44FB367C9C95}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3061562F-B18C-4E0B-AAA3-3487B22F5209}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{871F254D-F73A-4C0A-B17C-58C176B38364}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D122666-D83B-44B2-A7A2-A70A49C80DF2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{78690E78-2A36-4B9B-8088-B22550AD4015}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BCF1322-D532-4864-B745-DC89CB5838AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED5AEA82-32ED-469E-B5E1-17269BB03590}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7078748F-2AA2-438C-9EDD-0DE6E5AEA36C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC467BDA-0C43-4BDE-96D7-E31491C385C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2106B6C-D1EA-4276-9BDB-FCCBCB65AC57}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45A3982B-06C8-4936-9B61-0B878879F322}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5150,7 +5150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B177B2F1-1D88-4FDE-A4CA-361A3A3A0F0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBBC259-6478-4131-8189-230BD605594C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6396,18 +6396,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6261EB78-ABDB-4B16-8464-7FCC7728D244}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82CABE22-6F1C-46B7-A483-CAA6081AC216}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7133617-D0FD-4846-B479-FEA35DCDB220}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B7CE0260-E0A7-44D2-949D-F22CA9596CA4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9623BB16-7E5A-4553-8C6D-24CA4068156B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B080893E-C6CA-410E-97F6-6C942C11C4CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD08BC9C-01AF-4553-BE70-9E252401F1A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{703EA5BE-FD56-437D-8615-682568CDA027}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30E5CE8B-4CBC-44FD-B81E-05C4CA6B3D0F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C4B1C177-EF4C-4427-8B0A-1F995A90A4A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C15BDF6E-5695-4ED7-BE39-80756D224D40}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D63F1FCB-5F21-4BB0-A65C-FA066263A6F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35BD0062-10F6-406C-BB07-1D174A674646}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96E0A353-B260-4208-90F6-706B96B3EC34}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B2AABAE5-8E4F-4982-B9F5-DDCC2ED75F07}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4466C335-703B-49B2-BDA2-B537B23C7764}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A111706C-B9AE-440F-8E77-999B4663C1D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{151423E4-1E23-442F-B74D-C6E23EE6050A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D21C594-FB80-4B8F-B3B4-70716BB816E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{624EA1C9-7A93-4248-9B77-948DEE070AC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5605FE6F-6B45-4C8C-93BF-C2277CFE8479}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8DB09BA-789D-422B-938F-32EE86FCCA97}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7534F09C-59F9-40DB-858E-3964472CBE2A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0525758-1935-47CF-82F6-ED4BB715C328}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6420,7 +6420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C556A-5A7E-497A-AAD7-A72D18F00192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75CCCF2-8E5E-44FA-9DCD-3815046658CB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7681,18 +7681,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{136E29F2-BCCF-4973-8E0E-2BF0733E71B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3FD30203-355F-41D1-8E26-0E750CFFE55E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{29DC9AC2-6D00-43E4-9E91-98B45FB012F8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87998586-F601-4010-BAB3-450BDF1EB23A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24F2D7C3-C4BE-4969-83D4-84546FA4E36B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C65C255-4BCA-46C2-A63A-0B3D2B8C1BB1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C92D6C4E-A0EB-4ABE-9B2F-F5AB958AE259}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EE91B08-A9FB-4EFF-917E-CECBEB7DE9F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94600A44-F4D0-4405-ABC1-2605012B9BAF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A95A919C-68F0-4DC5-BDF8-4B55819C07BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C817C26-614D-40C1-AF48-5A139F20EB65}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C15760A4-AA51-4870-A355-2A2C59162239}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60EA920A-80AE-4EE2-877C-262F2058BC85}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA0D68EB-A923-4EEB-8F09-448C83425198}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8BB9734E-7181-4DC3-A63C-9AB29CDBDC5C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5BFCDEA5-CC97-4CF9-8B66-B01A3CC4DE16}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8E9C159-692A-4839-9BD1-76497D6775F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{583E640F-9D40-4E72-BB3A-D8CA00957E80}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1978976C-231C-4BFB-BE43-546283B8E059}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE633CC9-4E43-4821-BCCC-314F99D0C36F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDF55856-C143-448E-A028-2013DAF098CF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8CD4F405-D502-451C-A123-C64DDC953445}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D51093A-20DE-4272-B7C9-CB7F549D5347}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56EA0930-8C3A-4768-BB88-08A86034A686}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7705,7 +7705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E9263D-C21F-4B2D-B3BB-E74AD9786011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70C0C98-9D06-4F43-A0B3-AA40C43D80CA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8966,18 +8966,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B7595E1-2E79-4F92-A834-1E8F157910DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2C921EA-0C4D-4201-9B86-86163D00C98A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6FB7636B-579E-4303-BB5A-9DE7AD4D95A5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A6DC3408-CEC9-4736-BF65-619517E87BC1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C3470C4-9119-4052-9EE5-0063F6E9D17E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D9E910C-A231-4CF9-B690-2303465A53A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B688257-90F4-4195-A08C-370C60DD8095}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A96DDE9-AF86-4801-BF94-EFA09958564F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBD4DCF0-3A6D-4F57-BAAC-768044832554}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B6BC952-C2E8-42AA-AEE5-7706DBD6CF14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{975FFDA1-D2AA-4791-992D-5DEE5BE58EA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF9DF5FB-BA06-47D1-AD2A-659652AA6B9A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40B5E191-EBF0-4E85-8EBA-F9AFAB733BE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36585EE1-94B7-40E6-AC0E-879E844CA0A4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{402DBCAA-3160-4985-9753-58CD87C1D28D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C43EDF0-CF05-4416-84A5-5FB0F456BBB3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4211493D-5061-44B9-AFCD-A479AF2F865F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88C3D38D-65E8-40F8-B3DC-CD63F3351CA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2DB933D-64AD-49D7-B8D7-280BD03D3625}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB14B336-5DA7-486D-BD9F-CC39D80898E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1DC50E0-00ED-4CA2-B1B3-6D8A7E468D4E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B786A82C-821B-4DB5-BDEF-768269F7158E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E44F6C69-C5B3-491B-A0C4-32EDB5E9B43F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F095C5B-2099-4FA7-B237-E5312665F67E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8990,7 +8990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0DEFB7-6F4D-4FAB-846B-44E83B3C086D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768D41C9-BC01-4071-8115-49CA6DAB8091}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10251,18 +10251,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A412F724-55A3-40A2-9788-9E519620F4F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{271CBE2D-5F6D-491C-9080-579097990035}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82A83D11-7107-413B-93AA-9F13E9C0A651}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9A99F496-9DA6-449C-A1FE-2D9216055F56}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C21D607E-3094-44CA-B5B4-8379DD949C89}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD21E6DE-8F62-41FE-8624-9B3ABACC50EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50114E8C-1160-4D65-ACA0-B540E5B31218}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A45158CC-3066-46C6-87AA-EA91B6CBB860}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B01E8632-11CC-44E6-B119-CCFFB0B72900}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86D22850-245B-42BF-A842-962976037187}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE8A12D8-56C5-463E-9BE8-E73699B45F6B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC026C53-7A28-4A86-83E5-F92857761C1A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E15AA96-EED6-470C-8C8C-2536813928D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E204A592-80B6-45D8-845E-40C2752228F5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C54D81B-B8A4-4039-85FB-6637745D686E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1BF7E225-BE2A-4620-A07A-6C91294C17C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AB81FC9-98B3-40EF-A9C9-ED7494E10B5D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F0D2C65-FFD5-4652-9108-A418FAA4B7E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0EF378C9-3468-4C6F-8964-D5E298B1C06D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{837E5B54-A123-4F8A-9A41-91A271675285}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE53E660-C0F4-45AC-BC51-C8F6CCBE2347}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E73A06D1-B152-48F0-AD80-947054D4C768}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01089273-7A07-40F8-B9F7-59868211D7AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A30B595-7916-4C66-88CE-96089370C928}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10275,7 +10275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F2C7A8-DCF3-4FA2-92E1-75466C2835AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354E13A-444C-43C0-9A71-CEB934B11026}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11536,18 +11536,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14A516E7-CC31-461C-B71F-039947845E79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D507E85-B6F3-47C8-8CC6-69E36837F583}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8D4A834-93F9-4D55-905F-359F9DDFECBD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B3F300A-FB57-4BFE-A9D0-7E384919EE34}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05C80EE4-AE17-4C15-A558-135481DCB125}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0EA934E1-CE7B-433F-99DD-D6CAC6D3D4E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E6DAB24-D566-4296-81A5-7B374C09DA76}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9ED6F0B1-56A3-4A46-81C5-141A054E4A23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04342A27-6C7B-474F-BBCB-570D96C24505}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E74134B3-2F7C-436B-92BC-C63280BFBA2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B281514-E7ED-474C-89AA-7EA16D88CECC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AABCE7CD-75E8-4A41-B3CD-4B8909770C59}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86599E06-BD4C-459C-8BE2-5E65674B7CA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{868386CF-E8A4-4EE1-9F03-75D3B053449E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{826FD773-3FCA-4736-84FE-4615EEED2BA7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E5838EB5-9A22-4363-8F3A-C94F206D388F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00B1FC11-F7CA-4474-B081-6EDF7231FC61}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20CCFD60-FF57-4A37-A583-4E30C9CAA2F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C25A28E-845C-4287-82A3-82745B75DA09}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7E94931-79A8-4C80-965B-31646C7C89AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BFCBCDB-EC59-471A-BBE5-686EB17FB674}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0DFA3ED8-3A92-4537-9D39-4F6C6B4A5B8E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CF880B5-BFE6-4641-9008-81E83FE7B5C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF9EA120-8B7B-43EE-ADD6-ABFCD3EE2658}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11560,7 +11560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CD74A7-618B-4C46-8379-5C9A12CBC40E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30983DD-DC0C-4B11-9172-A51B3D6D7D16}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12821,18 +12821,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C564E71B-5F8E-4399-A470-0F5767E927DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{851AD8E4-2BDB-4FC6-B33F-959BD1F2D684}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9C8D6FC7-0F94-4D66-B4B2-47E52A3F3752}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72064172-60F0-4349-9407-1F0D778B2609}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{870ABB0C-63EC-496A-B791-1D056DE3C72B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBCC4969-1460-44A9-A5D8-ABF0B62362C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA98F905-8586-4FAE-BD4F-669C84ABF70E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B5F13C4-829F-4DF5-8288-E739F1B33D72}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11076B78-7515-41C5-B6BE-9AC3F8C32738}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9213D2FE-E9A9-4A30-82AF-B71FFCE666BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEA08B61-7BD2-405E-A1D3-DC9C6F2AF4E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6714A14-EEA5-49BF-A895-FAD08A5CBB2C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BADBDBBB-1A6B-45F8-BE4E-82866F28A66E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF18E95F-2DEB-4B1B-BB98-EFC62D9CCA16}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{684FCFFB-347D-462B-8DE5-D7A5F370ADDE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1AC0EC6E-BCF2-49C7-908B-F1A9E8CDF845}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{405F3F30-1741-4BC2-9478-6D95112A0DF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F67ACA05-8E07-47D4-867A-A4C812990C92}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FEDFE7C8-2BB5-49C2-ACE3-B5B3BE239C1F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{093FC3C4-77FA-449B-8FA1-512C2BBFB705}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99320984-644D-496C-82B0-A9EFE35373F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6DF2F65-0030-49B3-B6B4-1DA9F81EA30B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C677EB1-1195-4006-AFE5-6A2534F7EA0C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FDB4A9C2-A0C0-4C36-9F42-33C9E3388FBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12845,7 +12845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD0E9EB-BA31-4B36-ACD8-16AB326D2151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27CAB3E-B097-4361-942C-FF622B2F4DE2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14102,18 +14102,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F3D88BF-177B-43D4-B567-30C1660144CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38C9CAEE-A10F-4612-8888-5C6DA9C9499A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EBB2AA88-411D-4F31-9E07-80513460D283}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A5AECE25-F2E4-4C9E-9FD2-D0A347F10B24}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D75B4ACE-73C1-4425-8F98-4E5CEDD86680}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D633D36E-4696-4B80-926B-A148741800C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7EBD4271-A662-4E9C-BB95-852C40DB0DB5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{396E3A4A-17A1-4481-B916-73264223ED25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D20CCE7-8674-40BD-88DF-2B62FD8A339A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{797D7722-F573-4A79-9096-6231DC328305}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3AD8F562-838B-4F4F-96EC-59D6ACAA23BB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8EE51418-F85D-4FD4-AD5A-2D7DCCC88053}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47AD390E-9197-425C-B04C-4146621CA96E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B61C768-DB75-4641-A3E5-0FC3C7A4D8D3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{026BDFE2-BD9D-46FB-AE1F-39F7A652970A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B8E73F93-6464-45CF-B3D3-79FF2B6680FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC933BA8-3866-4283-9A3B-E0B023C00D67}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37FB403D-66D9-4B35-A96F-61BBAE0068A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1720AB9-5DCF-436D-AC41-A72CA484EB66}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{252BF62A-9794-4764-9AD7-936DD630B485}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{336E89C0-3589-4D54-B9E5-3A1C5B879CBC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63D08362-250F-4142-8C93-20A05C4C411B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55846FA4-9CAB-40ED-8286-98623232BDB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80A1F63C-1AB6-486C-99CE-D65E281C3047}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14126,7 +14126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1F9E46-8EC7-4D88-B308-7632E3429187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750D56A9-AA1D-4559-8EE7-DE945102877C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15383,18 +15383,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB329E44-B677-468E-8970-67037967C951}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0F35C4B-2C07-443D-B03D-3628631EC507}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7B14FD11-EBA2-452D-8EC6-E593624F4E12}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{95D80173-A3EE-4632-BB4F-781AEFA305E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71808C4D-30BC-4920-910D-E13D869CBB67}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60D1B38A-FCB5-41A0-B984-0C4C064FCA82}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3ECFC1FC-5D01-4883-9723-3B8469905ECF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9260A629-D92D-4714-BE72-987A262EC9D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4F80F80D-4A06-4F5C-8416-6880BA24BE41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{979ABD51-FB3F-40BD-9F8F-7C89C7195C37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82B5B495-E423-4EAB-8CFC-5EB49E7EE132}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8519237C-2031-4FE2-846D-2BB1DB3CBB64}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAC44D10-9496-45C2-ACC9-13A0CEB41919}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AB82D46-7123-451E-A4E0-3E2CA3F6B8B3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C73F9911-F1E7-4BBE-BDF1-AD10AD89EE07}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E1F687B-DD0B-4F93-8B58-FB26115AA705}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{233CE843-391B-4D0E-81F4-60F7CAE9E11D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E42574DC-DFD1-46F3-A6C9-4C2EFAD1A45A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDC50CD2-643D-416A-90C9-B70C9151504A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3959873A-172E-4D74-B4A7-5939A9142BE8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8032A080-BD9D-4022-B807-FA495D240F7F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BF6842B-BFA8-43CD-91D7-B4D02810277C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69001CC1-6DB6-405A-AFDB-8F1566AFC08E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2351748E-B433-4E22-872C-D796A186054E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15407,7 +15407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5988EC-33B7-4480-8F09-34E7BD0FBC95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045D018-AB8A-470B-90B5-A467A11A850D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16664,18 +16664,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{476584DD-E3B4-493B-8338-B6DA8995D70E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61A10607-A2A9-488C-A960-E8201B67EAC0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E2CD6BA3-0DCA-4981-8C44-4E484A31FFC9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1ED950FA-01C3-4ADA-9012-97891B14662D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76F06CF8-269E-4882-9DF0-34A243D95A62}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FE933EA-C6C0-4DB2-8A0C-732D81734433}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC7D5D29-0FFC-4D1C-A25D-21A05DEF44AD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{222231FD-DBBC-4037-9604-89FB573DC329}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D27849A0-B58B-4FDA-9CD9-208BB4DCDFEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1DF0B44-E97C-4704-9D99-BBF5669AF261}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75DA110B-11EF-495D-9BA8-A098A9F1C62C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8441F086-5509-434F-B952-0CFEC15F0182}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B389BCF6-596F-480B-936A-BC9047E32496}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3D9170D-259F-49E2-84A9-C06460EB0B8A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A8CFDF1-0F83-4B54-BBE8-E99547B4C42A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C3984BA4-93FE-496A-AC14-B9A72457943C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50B44756-213B-44E0-800D-8EFAF59AF3F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89A26A4A-3806-4EBD-B875-8C5FA70DC7A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A5AB476-65D4-4A85-9544-9F418219556F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AAFA29C-15E8-4B4F-88B7-CE39B76CFD44}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D78A9242-99FD-476E-ABE1-E54BBBD676DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{554D53A2-04AE-433F-8935-BAC22EBCDEC9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4665A5A-0997-4CCE-899B-47D980F278F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D4DDD40-9B15-4015-93AA-00B9D2E95160}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
